--- a/data_year/zb/就业人员和工资/城镇单位就业人员工资总额和指数.xlsx
+++ b/data_year/zb/就业人员和工资/城镇单位就业人员工资总额和指数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,652 +478,404 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2259.1</v>
+        <v>20949.74127</v>
       </c>
       <c r="C2" t="n">
-        <v>120.8010266831</v>
+        <v>122.1</v>
       </c>
       <c r="D2" t="n">
-        <v>7744.9</v>
+        <v>24886.4264</v>
       </c>
       <c r="E2" t="n">
-        <v>106.2415122292</v>
+        <v>113.8</v>
       </c>
       <c r="F2" t="n">
-        <v>10954.7</v>
+        <v>47269.88554</v>
       </c>
       <c r="G2" t="n">
-        <v>107.8653787454</v>
+        <v>117.3</v>
       </c>
       <c r="H2" t="n">
-        <v>950.7</v>
+        <v>1433.71787</v>
       </c>
       <c r="I2" t="n">
-        <v>95.4709781081</v>
+        <v>112.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2791.7</v>
+        <v>29262.41206</v>
       </c>
       <c r="C3" t="n">
-        <v>123.57576025851</v>
+        <v>139.6791095549</v>
       </c>
       <c r="D3" t="n">
-        <v>8515.200000000001</v>
+        <v>28954.80775</v>
       </c>
       <c r="E3" t="n">
-        <v>109.945899882503</v>
+        <v>116.3477925059</v>
       </c>
       <c r="F3" t="n">
-        <v>12205.4</v>
+        <v>59954.66188</v>
       </c>
       <c r="G3" t="n">
-        <v>111.417017353282</v>
+        <v>126.8347938547</v>
       </c>
       <c r="H3" t="n">
-        <v>898.5</v>
+        <v>1737.44207</v>
       </c>
       <c r="I3" t="n">
-        <v>94.50930893026189</v>
+        <v>121.1843770909</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3636.2</v>
+        <v>35973.80139</v>
       </c>
       <c r="C4" t="n">
-        <v>130.250385070029</v>
+        <v>122.935188378316</v>
       </c>
       <c r="D4" t="n">
-        <v>9138</v>
+        <v>32950.00751</v>
       </c>
       <c r="E4" t="n">
-        <v>107.313979706877</v>
+        <v>113.798053140242</v>
       </c>
       <c r="F4" t="n">
-        <v>13638.1</v>
+        <v>70914.20915</v>
       </c>
       <c r="G4" t="n">
-        <v>111.738247005424</v>
+        <v>118.279724922702</v>
       </c>
       <c r="H4" t="n">
-        <v>863.9</v>
+        <v>1990.40025</v>
       </c>
       <c r="I4" t="n">
-        <v>96.14913745130769</v>
+        <v>114.55922959204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4550.6</v>
+        <v>57508.93332</v>
       </c>
       <c r="C5" t="n">
-        <v>125.147131620923</v>
+        <v>159.9</v>
       </c>
       <c r="D5" t="n">
-        <v>9911.9</v>
+        <v>33359.58665</v>
       </c>
       <c r="E5" t="n">
-        <v>108.469030422412</v>
+        <v>101.2</v>
       </c>
       <c r="F5" t="n">
-        <v>15329.6</v>
+        <v>93064.29104</v>
       </c>
       <c r="G5" t="n">
-        <v>112.402754049318</v>
+        <v>131.2</v>
       </c>
       <c r="H5" t="n">
-        <v>867.1</v>
+        <v>2195.77107</v>
       </c>
       <c r="I5" t="n">
-        <v>100.370413242273</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5700.6</v>
+        <v>64407.95938</v>
       </c>
       <c r="C6" t="n">
-        <v>125.271392783369</v>
+        <v>111.996442398977</v>
       </c>
       <c r="D6" t="n">
-        <v>11038.2</v>
+        <v>36106.61584</v>
       </c>
       <c r="E6" t="n">
-        <v>111.363108990204</v>
+        <v>108.234602001581</v>
       </c>
       <c r="F6" t="n">
-        <v>17615</v>
+        <v>102817.23364</v>
       </c>
       <c r="G6" t="n">
-        <v>114.908412483039</v>
+        <v>110.479790358912</v>
       </c>
       <c r="H6" t="n">
-        <v>876.2</v>
+        <v>2302.65842</v>
       </c>
       <c r="I6" t="n">
-        <v>101.049475262369</v>
+        <v>104.867873133969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7429</v>
+        <v>69380.46765999999</v>
       </c>
       <c r="C7" t="n">
-        <v>130.3196154791</v>
+        <v>107.7203319712</v>
       </c>
       <c r="D7" t="n">
-        <v>12291.7</v>
+        <v>40387.8919</v>
       </c>
       <c r="E7" t="n">
-        <v>111.3560181914</v>
+        <v>111.8573174483</v>
       </c>
       <c r="F7" t="n">
-        <v>20627.06573</v>
+        <v>112007.79029</v>
       </c>
       <c r="G7" t="n">
-        <v>117.0996309963</v>
+        <v>108.9387316937</v>
       </c>
       <c r="H7" t="n">
-        <v>906.4</v>
+        <v>2239.43073</v>
       </c>
       <c r="I7" t="n">
-        <v>103.4467016663</v>
+        <v>97.25414375619999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9357.90408</v>
+        <v>73343.26463000001</v>
       </c>
       <c r="C8" t="n">
-        <v>125.964518508548</v>
+        <v>105.7116896205</v>
       </c>
       <c r="D8" t="n">
-        <v>13920.62629</v>
+        <v>44462.90308</v>
       </c>
       <c r="E8" t="n">
-        <v>113.252245743062</v>
+        <v>110.0896852703</v>
       </c>
       <c r="F8" t="n">
-        <v>24262.32307</v>
+        <v>120074.80139</v>
       </c>
       <c r="G8" t="n">
-        <v>117.623529580019</v>
+        <v>107.2021875256</v>
       </c>
       <c r="H8" t="n">
-        <v>983.7927</v>
+        <v>2268.63368</v>
       </c>
       <c r="I8" t="n">
-        <v>108.538470873786</v>
+        <v>101.3040345302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11674.30625</v>
+        <v>78789.26897</v>
       </c>
       <c r="C9" t="n">
-        <v>124.8</v>
+        <v>107.425312155303</v>
       </c>
       <c r="D9" t="n">
-        <v>16689.0871</v>
+        <v>48884.14741</v>
       </c>
       <c r="E9" t="n">
-        <v>119.9</v>
+        <v>109.943677560393</v>
       </c>
       <c r="F9" t="n">
-        <v>29471.51498</v>
+        <v>129889.05708</v>
       </c>
       <c r="G9" t="n">
-        <v>121.5</v>
+        <v>108.1734527811</v>
       </c>
       <c r="H9" t="n">
-        <v>1108.12163</v>
+        <v>2215.6407</v>
       </c>
       <c r="I9" t="n">
-        <v>112.6</v>
+        <v>97.66555144141761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14598.37118</v>
+        <v>88271.1064</v>
       </c>
       <c r="C10" t="n">
-        <v>125.047012365296</v>
+        <v>112</v>
       </c>
       <c r="D10" t="n">
-        <v>19487.89587</v>
+        <v>51126.5698</v>
       </c>
       <c r="E10" t="n">
-        <v>116.770292786117</v>
+        <v>104.58721796085</v>
       </c>
       <c r="F10" t="n">
-        <v>35289.49727</v>
+        <v>141479.99653</v>
       </c>
       <c r="G10" t="n">
-        <v>119.741035688013</v>
+        <v>108.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1203.23022</v>
+        <v>2082.32033</v>
       </c>
       <c r="I10" t="n">
-        <v>108.582865583086</v>
+        <v>93.9827621870279</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17152.12027</v>
+        <v>98710.90205999999</v>
       </c>
       <c r="C11" t="n">
-        <v>117.5</v>
+        <v>111.8269681731</v>
       </c>
       <c r="D11" t="n">
-        <v>21862.69674</v>
+        <v>53743.67829</v>
       </c>
       <c r="E11" t="n">
-        <v>112.2</v>
+        <v>105.1188814353</v>
       </c>
       <c r="F11" t="n">
-        <v>40288.16311</v>
+        <v>154296.07035</v>
       </c>
       <c r="G11" t="n">
-        <v>114.2</v>
+        <v>109.0585765722</v>
       </c>
       <c r="H11" t="n">
-        <v>1273.3461</v>
+        <v>1841.49</v>
       </c>
       <c r="I11" t="n">
-        <v>105.8</v>
+        <v>88.4345205428</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20949.74127</v>
+        <v>102656.9548881</v>
       </c>
       <c r="C12" t="n">
-        <v>122.1</v>
+        <v>103.997585622003</v>
       </c>
       <c r="D12" t="n">
-        <v>24886.4264</v>
+        <v>59628.12362122</v>
       </c>
       <c r="E12" t="n">
-        <v>113.8</v>
+        <v>110.949093025356</v>
       </c>
       <c r="F12" t="n">
-        <v>47269.88554</v>
+        <v>164126.86507814</v>
       </c>
       <c r="G12" t="n">
-        <v>117.3</v>
+        <v>106.371383733779</v>
       </c>
       <c r="H12" t="n">
-        <v>1433.71787</v>
+        <v>1841.78656882</v>
       </c>
       <c r="I12" t="n">
-        <v>112.6</v>
+        <v>100.016104829242</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29262.41206</v>
+        <v>114349.6613241</v>
       </c>
       <c r="C13" t="n">
-        <v>139.6791095549</v>
+        <v>111.390028272889</v>
       </c>
       <c r="D13" t="n">
-        <v>28954.80775</v>
+        <v>64547.85518722</v>
       </c>
       <c r="E13" t="n">
-        <v>116.3477925059</v>
+        <v>108.250732770657</v>
       </c>
       <c r="F13" t="n">
-        <v>59954.66188</v>
+        <v>180817.52521827</v>
       </c>
       <c r="G13" t="n">
-        <v>126.8347938547</v>
+        <v>110.169341660794</v>
       </c>
       <c r="H13" t="n">
-        <v>1737.44207</v>
+        <v>1920.00870695</v>
       </c>
       <c r="I13" t="n">
-        <v>121.1843770909</v>
+        <v>104.246319195895</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35973.80139</v>
+        <v>120010.77775362</v>
       </c>
       <c r="C14" t="n">
-        <v>122.9</v>
+        <v>104.950706774264</v>
       </c>
       <c r="D14" t="n">
-        <v>32950.00751</v>
+        <v>69000.1682072</v>
       </c>
       <c r="E14" t="n">
-        <v>113.8</v>
+        <v>106.897693203076</v>
       </c>
       <c r="F14" t="n">
-        <v>70914.20915</v>
+        <v>190820.22094105</v>
       </c>
       <c r="G14" t="n">
-        <v>118.3</v>
+        <v>105.531928230245</v>
       </c>
       <c r="H14" t="n">
-        <v>1990.40025</v>
+        <v>1809.27498023</v>
       </c>
       <c r="I14" t="n">
-        <v>114.6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>57508.93332</v>
-      </c>
-      <c r="C15" t="n">
-        <v>159.9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>33359.58665</v>
-      </c>
-      <c r="E15" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>93064.29104</v>
-      </c>
-      <c r="G15" t="n">
-        <v>131.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2195.77107</v>
-      </c>
-      <c r="I15" t="n">
-        <v>110.3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>64407.95938</v>
-      </c>
-      <c r="C16" t="n">
-        <v>112</v>
-      </c>
-      <c r="D16" t="n">
-        <v>36106.61584</v>
-      </c>
-      <c r="E16" t="n">
-        <v>108.2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>102817.23364</v>
-      </c>
-      <c r="G16" t="n">
-        <v>110.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2302.65842</v>
-      </c>
-      <c r="I16" t="n">
-        <v>104.9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>69380.46765999999</v>
-      </c>
-      <c r="C17" t="n">
-        <v>107.7203319712</v>
-      </c>
-      <c r="D17" t="n">
-        <v>40387.8919</v>
-      </c>
-      <c r="E17" t="n">
-        <v>111.8573174483</v>
-      </c>
-      <c r="F17" t="n">
-        <v>112007.79029</v>
-      </c>
-      <c r="G17" t="n">
-        <v>108.9387316937</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2239.43073</v>
-      </c>
-      <c r="I17" t="n">
-        <v>97.25414375619999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>73343.26463000001</v>
-      </c>
-      <c r="C18" t="n">
-        <v>105.7116896205</v>
-      </c>
-      <c r="D18" t="n">
-        <v>44462.90308</v>
-      </c>
-      <c r="E18" t="n">
-        <v>110.0896852703</v>
-      </c>
-      <c r="F18" t="n">
-        <v>120074.80139</v>
-      </c>
-      <c r="G18" t="n">
-        <v>107.2021875256</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2268.63368</v>
-      </c>
-      <c r="I18" t="n">
-        <v>101.3040345302</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>78789.26897</v>
-      </c>
-      <c r="C19" t="n">
-        <v>107.4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>48884.14741</v>
-      </c>
-      <c r="E19" t="n">
-        <v>109.9</v>
-      </c>
-      <c r="F19" t="n">
-        <v>129889.05708</v>
-      </c>
-      <c r="G19" t="n">
-        <v>108.2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2215.6407</v>
-      </c>
-      <c r="I19" t="n">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>88271.1064</v>
-      </c>
-      <c r="C20" t="n">
-        <v>112</v>
-      </c>
-      <c r="D20" t="n">
-        <v>51126.5698</v>
-      </c>
-      <c r="E20" t="n">
-        <v>104.6</v>
-      </c>
-      <c r="F20" t="n">
-        <v>141479.99653</v>
-      </c>
-      <c r="G20" t="n">
-        <v>108.9</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2082.32033</v>
-      </c>
-      <c r="I20" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>98710.90205999999</v>
-      </c>
-      <c r="C21" t="n">
-        <v>111.8269681731</v>
-      </c>
-      <c r="D21" t="n">
-        <v>53743.67829</v>
-      </c>
-      <c r="E21" t="n">
-        <v>105.1188814353</v>
-      </c>
-      <c r="F21" t="n">
-        <v>154296.07035</v>
-      </c>
-      <c r="G21" t="n">
-        <v>109.0585765722</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1841.49</v>
-      </c>
-      <c r="I21" t="n">
-        <v>88.4345205428</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>102656.9548881</v>
-      </c>
-      <c r="C22" t="n">
-        <v>103.997585622003</v>
-      </c>
-      <c r="D22" t="n">
-        <v>59628.12362122</v>
-      </c>
-      <c r="E22" t="n">
-        <v>110.949093025356</v>
-      </c>
-      <c r="F22" t="n">
-        <v>164126.86507814</v>
-      </c>
-      <c r="G22" t="n">
-        <v>106.371383733779</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1841.78656882</v>
-      </c>
-      <c r="I22" t="n">
-        <v>100.016104829242</v>
+        <v>94.232644554206</v>
       </c>
     </row>
   </sheetData>
